--- a/prelim/PPI Info (New Zealand).xlsx
+++ b/prelim/PPI Info (New Zealand).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -847,6 +847,9 @@
     <t xml:space="preserve">borders.border</t>
   </si>
   <si>
+    <t xml:space="preserve">Borders</t>
+  </si>
+  <si>
     <t xml:space="preserve">national</t>
   </si>
   <si>
@@ -89982,9 +89985,11 @@
       <c r="C2" t="s">
         <v>276</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F2" t="n">
         <v>0.25</v>
@@ -90540,9 +90545,11 @@
       <c r="C3" t="s">
         <v>276</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -91096,13 +91103,13 @@
         <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -91656,13 +91663,13 @@
         <v>275</v>
       </c>
       <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
         <v>279</v>
-      </c>
-      <c r="D5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" t="s">
-        <v>278</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -92216,13 +92223,13 @@
         <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -92776,13 +92783,13 @@
         <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -93336,13 +93343,13 @@
         <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F8" t="n">
         <v>0.5</v>
@@ -93896,13 +93903,13 @@
         <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -94456,13 +94463,13 @@
         <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -95016,13 +95023,13 @@
         <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -95576,13 +95583,13 @@
         <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -96136,13 +96143,13 @@
         <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -96696,13 +96703,13 @@
         <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -97256,13 +97263,13 @@
         <v>275</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -97816,13 +97823,13 @@
         <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -98376,13 +98383,13 @@
         <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -98936,13 +98943,13 @@
         <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -99496,13 +99503,13 @@
         <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -100056,13 +100063,13 @@
         <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -100616,13 +100623,13 @@
         <v>275</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -101176,13 +101183,13 @@
         <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -101736,13 +101743,13 @@
         <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -102296,13 +102303,13 @@
         <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -102856,13 +102863,13 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -103416,13 +103423,13 @@
         <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -103976,13 +103983,13 @@
         <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -104536,13 +104543,13 @@
         <v>275</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -105096,13 +105103,13 @@
         <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -105656,13 +105663,13 @@
         <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -106216,13 +106223,13 @@
         <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
